--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,6 +1714,126 @@
         <v>101178</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Air conditioon </t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10220000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>61320000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>809424</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1277500</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7665000</v>
+      </c>
+      <c r="N39" t="n">
+        <v>101178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> lamp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>800</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>36</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10512000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>63072000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>832550.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>292000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1752000</v>
+      </c>
+      <c r="N40" t="n">
+        <v>23126.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> lamp</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>800</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>36</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10512000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>63072000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>832550.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>292000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1752000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>23126.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4156,6 +4156,92 @@
         <v>23</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="E87" t="n">
+        <v>731.8249999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>439094.9999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5796.053999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3752.199999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2251320</v>
+      </c>
+      <c r="J87" t="n">
+        <v>29717.424</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>washing machine</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E88" t="n">
+        <v>93.075</v>
+      </c>
+      <c r="F88" t="n">
+        <v>55845</v>
+      </c>
+      <c r="G88" t="n">
+        <v>737.154</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3752.199999999999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2251320</v>
+      </c>
+      <c r="J88" t="n">
+        <v>29717.424</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+      <c r="M88" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,47 +519,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Philips Lamps</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.013</v>
+        <v>2.018</v>
       </c>
       <c r="E2" t="n">
-        <v>734.745</v>
+        <v>736.5699999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>440847</v>
+        <v>441941.9999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>5819.1804</v>
+        <v>5833.634399999999</v>
       </c>
       <c r="H2" t="n">
-        <v>11755.92</v>
+        <v>2946.28</v>
       </c>
       <c r="I2" t="n">
-        <v>7053552</v>
+        <v>1767768</v>
       </c>
       <c r="J2" t="n">
-        <v>93106.8864</v>
+        <v>23334.5376</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>9698634</v>
+        <v>2979057</v>
       </c>
       <c r="M2" t="n">
-        <v>16164.39</v>
+        <v>4965.094999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>128021.9688</v>
+        <v>39323.5524</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -571,53 +571,781 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Philips Lamps</t>
+          <t>Biolux lamps</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>2.013</v>
+        <v>0.058</v>
       </c>
       <c r="E3" t="n">
-        <v>734.745</v>
+        <v>21.17</v>
       </c>
       <c r="F3" t="n">
-        <v>440847</v>
+        <v>12702</v>
       </c>
       <c r="G3" t="n">
-        <v>5819.1804</v>
+        <v>167.6664</v>
       </c>
       <c r="H3" t="n">
-        <v>4408.47</v>
+        <v>762.1200000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>2645082</v>
+        <v>457272.0000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>34915.0824</v>
+        <v>6035.990400000001</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>9698634</v>
+        <v>2979057</v>
       </c>
       <c r="M3" t="n">
-        <v>16164.39</v>
+        <v>4965.094999999998</v>
       </c>
       <c r="N3" t="n">
-        <v>128021.9688</v>
+        <v>39323.5524</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bosch dishwasher</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>657</v>
+      </c>
+      <c r="F4" t="n">
+        <v>394200</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5203.44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>657</v>
+      </c>
+      <c r="I4" t="n">
+        <v>394200</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5203.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2979057</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4965.094999999998</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39323.5524</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Heating system</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74460</v>
+      </c>
+      <c r="G5" t="n">
+        <v>982.872</v>
+      </c>
+      <c r="H5" t="n">
+        <v>496.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>297840</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3931.488</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2979057</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4965.094999999998</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39323.5524</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Siemens fridge</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40734</v>
+      </c>
+      <c r="G6" t="n">
+        <v>537.6888</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40734</v>
+      </c>
+      <c r="J6" t="n">
+        <v>537.6888</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2979057</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4965.094999999998</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39323.5524</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Macbook Air</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13140</v>
+      </c>
+      <c r="G7" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13140</v>
+      </c>
+      <c r="J7" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2979057</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4965.094999999998</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39323.5524</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fritzbox</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5913</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78.05159999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5913</v>
+      </c>
+      <c r="J8" t="n">
+        <v>78.05159999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2979057</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4965.094999999998</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39323.5524</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Iphone 11 pro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2190</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28.908</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J9" t="n">
+        <v>28.908</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2979057</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4965.094999999998</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39323.5524</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="E10" t="n">
+        <v>736.5699999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>441941.9999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5833.634399999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3682.849999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2209710</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29168.172</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N10" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="E11" t="n">
+        <v>731.8249999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>439094.9999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5796.053999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3659.125</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2195475</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28980.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N11" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Heating system</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>74460</v>
+      </c>
+      <c r="G12" t="n">
+        <v>982.872</v>
+      </c>
+      <c r="H12" t="n">
+        <v>496.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>297840</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3931.488</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N12" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Webcamera</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="E13" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>57816</v>
+      </c>
+      <c r="G13" t="n">
+        <v>763.1712</v>
+      </c>
+      <c r="H13" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>57816</v>
+      </c>
+      <c r="J13" t="n">
+        <v>763.1712</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N13" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>computer keyboard</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13140</v>
+      </c>
+      <c r="G14" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26280</v>
+      </c>
+      <c r="J14" t="n">
+        <v>346.896</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N14" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hp laser jet printer</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6570</v>
+      </c>
+      <c r="G15" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13140</v>
+      </c>
+      <c r="J15" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N15" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Laptop HP255G7</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10950</v>
+      </c>
+      <c r="G16" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10950</v>
+      </c>
+      <c r="J16" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N16" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Synology Server</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6570</v>
+      </c>
+      <c r="G17" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6570</v>
+      </c>
+      <c r="J17" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4817780.999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8029.634999999997</v>
+      </c>
+      <c r="N17" t="n">
+        <v>63594.70919999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +562,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>39323.5524</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1134,7 +1134,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -1290,7 +1290,7 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1342,10 +1342,2402 @@
         <v>63594.70919999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="E18" t="n">
+        <v>736.5699999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>441941.9999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5833.634399999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2946.28</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1767768</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23334.5376</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Siemens water heater</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>438</v>
+      </c>
+      <c r="F19" t="n">
+        <v>262800</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3468.96</v>
+      </c>
+      <c r="H19" t="n">
+        <v>438</v>
+      </c>
+      <c r="I19" t="n">
+        <v>262800</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3468.96</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Siemens dishwasher</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>438</v>
+      </c>
+      <c r="F20" t="n">
+        <v>262800</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3468.96</v>
+      </c>
+      <c r="H20" t="n">
+        <v>438</v>
+      </c>
+      <c r="I20" t="n">
+        <v>262800</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3468.96</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Biolux lamps</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E21" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12702</v>
+      </c>
+      <c r="G21" t="n">
+        <v>167.6664</v>
+      </c>
+      <c r="H21" t="n">
+        <v>254.04</v>
+      </c>
+      <c r="I21" t="n">
+        <v>152424</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2011.9968</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mini Computer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E22" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13140</v>
+      </c>
+      <c r="G22" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13140</v>
+      </c>
+      <c r="J22" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Printer- HP</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6570</v>
+      </c>
+      <c r="G23" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6570</v>
+      </c>
+      <c r="J23" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.475</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3285</v>
+      </c>
+      <c r="G24" t="n">
+        <v>43.362</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6570</v>
+      </c>
+      <c r="J24" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Antec Computer</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2409</v>
+      </c>
+      <c r="G25" t="n">
+        <v>31.7988</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4818</v>
+      </c>
+      <c r="J25" t="n">
+        <v>63.5976</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bosch refrigerator</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.745</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2847</v>
+      </c>
+      <c r="G26" t="n">
+        <v>37.5804</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.745</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2847</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37.5804</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2479737</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4132.894999999999</v>
+      </c>
+      <c r="N26" t="n">
+        <v>32732.52839999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Backup Server</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>109500</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1445.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>109500</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1445.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M27" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BenQ Monitor</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5913</v>
+      </c>
+      <c r="G28" t="n">
+        <v>78.05159999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23652</v>
+      </c>
+      <c r="J28" t="n">
+        <v>312.2064</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M28" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sony TV</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E29" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="F29" t="n">
+        <v>19710</v>
+      </c>
+      <c r="G29" t="n">
+        <v>260.172</v>
+      </c>
+      <c r="H29" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19710</v>
+      </c>
+      <c r="J29" t="n">
+        <v>260.172</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M29" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Samsung monitor</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6132</v>
+      </c>
+      <c r="G30" t="n">
+        <v>80.94240000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12264</v>
+      </c>
+      <c r="J30" t="n">
+        <v>161.8848</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M30" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AVM Fritzfon</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>24</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1752</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23.1264</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5256</v>
+      </c>
+      <c r="J31" t="n">
+        <v>69.3792</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M31" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Auna CD Player</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2190</v>
+      </c>
+      <c r="G32" t="n">
+        <v>28.908</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4380</v>
+      </c>
+      <c r="J32" t="n">
+        <v>57.816</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M32" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.475</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3285</v>
+      </c>
+      <c r="G33" t="n">
+        <v>43.362</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.475</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3285</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43.362</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>178047</v>
+      </c>
+      <c r="M33" t="n">
+        <v>296.7450000000001</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2350.2204</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Heating systems</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>510.9999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>306599.9999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4047.119999999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2044</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1226400</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16188.48</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N34" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="E35" t="n">
+        <v>731.8249999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>439094.9999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5796.053999999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1463.65</v>
+      </c>
+      <c r="I35" t="n">
+        <v>878189.9999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11592.108</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N35" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>computer keyboard</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13140</v>
+      </c>
+      <c r="G36" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="H36" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>52560</v>
+      </c>
+      <c r="J36" t="n">
+        <v>693.792</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N36" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HP OfficeJet</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6570</v>
+      </c>
+      <c r="G37" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="H37" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19710</v>
+      </c>
+      <c r="J37" t="n">
+        <v>260.172</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N37" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Printer</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6570</v>
+      </c>
+      <c r="G38" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="H38" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13140</v>
+      </c>
+      <c r="J38" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N38" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hp monitor</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5256</v>
+      </c>
+      <c r="G39" t="n">
+        <v>69.3792</v>
+      </c>
+      <c r="H39" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10512</v>
+      </c>
+      <c r="J39" t="n">
+        <v>138.7584</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N39" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F40" t="n">
+        <v>876</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11.5632</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I40" t="n">
+        <v>876</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.5632</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2201388</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3668.98</v>
+      </c>
+      <c r="N40" t="n">
+        <v>29058.3216</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Acer DLP Projector</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1460</v>
+      </c>
+      <c r="F41" t="n">
+        <v>876000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11563.2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I41" t="n">
+        <v>876000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11563.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>946956</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1578.26</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12499.8192</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Imac 24 inch</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21900</v>
+      </c>
+      <c r="G42" t="n">
+        <v>289.08</v>
+      </c>
+      <c r="H42" t="n">
+        <v>73</v>
+      </c>
+      <c r="I42" t="n">
+        <v>43800</v>
+      </c>
+      <c r="J42" t="n">
+        <v>578.16</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>946956</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1578.26</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12499.8192</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thermal printer</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6570</v>
+      </c>
+      <c r="G43" t="n">
+        <v>86.724</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13140</v>
+      </c>
+      <c r="J43" t="n">
+        <v>173.448</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>946956</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1578.26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12499.8192</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>laptop</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10950</v>
+      </c>
+      <c r="G44" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10950</v>
+      </c>
+      <c r="J44" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>946956</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1578.26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12499.8192</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Stereo Hi-Fi Amplitier System</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2190</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28.908</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J45" t="n">
+        <v>28.908</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>946956</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1578.26</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12499.8192</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F46" t="n">
+        <v>438</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.7816</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I46" t="n">
+        <v>876</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11.5632</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>946956</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1578.26</v>
+      </c>
+      <c r="N46" t="n">
+        <v>12499.8192</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ViewSonic LED</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E47" t="n">
+        <v>934.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>560640</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7400.448</v>
+      </c>
+      <c r="H47" t="n">
+        <v>934.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>560640</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7400.448</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>567648</v>
+      </c>
+      <c r="M47" t="n">
+        <v>946.0799999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7492.9536</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Stereo Hi-Fi Amplitier System</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2190</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28.908</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4380</v>
+      </c>
+      <c r="J48" t="n">
+        <v>57.816</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>567648</v>
+      </c>
+      <c r="M48" t="n">
+        <v>946.0799999999999</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7492.9536</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CD Player</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F49" t="n">
+        <v>657</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8.6724</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2628</v>
+      </c>
+      <c r="J49" t="n">
+        <v>34.6896</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>567648</v>
+      </c>
+      <c r="M49" t="n">
+        <v>946.0799999999999</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7492.9536</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Heating system</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>510.9999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>306599.9999999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4047.119999999999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3066</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1839600</v>
+      </c>
+      <c r="J50" t="n">
+        <v>24282.72</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2015457</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3359.094999999999</v>
+      </c>
+      <c r="N50" t="n">
+        <v>26604.0324</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Xenyx 802</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="E51" t="n">
+        <v>292.73</v>
+      </c>
+      <c r="F51" t="n">
+        <v>175638</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2318.4216</v>
+      </c>
+      <c r="H51" t="n">
+        <v>292.73</v>
+      </c>
+      <c r="I51" t="n">
+        <v>175638</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2318.4216</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2015457</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3359.094999999999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>26604.0324</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Laminator</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F52" t="n">
+        <v>219</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.8908</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I52" t="n">
+        <v>219</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.8908</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2015457</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3359.094999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>26604.0324</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Coffee machine</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>73</v>
+      </c>
+      <c r="F53" t="n">
+        <v>43800</v>
+      </c>
+      <c r="G53" t="n">
+        <v>578.16</v>
+      </c>
+      <c r="H53" t="n">
+        <v>73</v>
+      </c>
+      <c r="I53" t="n">
+        <v>43800</v>
+      </c>
+      <c r="J53" t="n">
+        <v>578.16</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>45114</v>
+      </c>
+      <c r="M53" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="N53" t="n">
+        <v>595.5047999999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CD Player</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F54" t="n">
+        <v>657</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.6724</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1314</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17.3448</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>45114</v>
+      </c>
+      <c r="M54" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="N54" t="n">
+        <v>595.5047999999999</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HP Laptop</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10950</v>
+      </c>
+      <c r="G55" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="H55" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10950</v>
+      </c>
+      <c r="J55" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10950</v>
+      </c>
+      <c r="M55" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="N55" t="n">
+        <v>144.54</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>fan</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E56" t="n">
+        <v>27.375</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16425</v>
+      </c>
+      <c r="G56" t="n">
+        <v>216.81</v>
+      </c>
+      <c r="H56" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32850</v>
+      </c>
+      <c r="J56" t="n">
+        <v>433.62</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>32850</v>
+      </c>
+      <c r="M56" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="N56" t="n">
+        <v>433.62</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1095000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14454</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3650</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2190000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>28908</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2190000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3650</v>
+      </c>
+      <c r="N57" t="n">
+        <v>28908</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" t="n">
+        <v>18250</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>144540</v>
+      </c>
+      <c r="H58" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>578160</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>73000</v>
+      </c>
+      <c r="N58" t="n">
+        <v>578160</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" t="n">
+        <v>18250</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>144540</v>
+      </c>
+      <c r="H59" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>578160</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>73000</v>
+      </c>
+      <c r="N59" t="n">
+        <v>578160</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>50</v>
+      </c>
+      <c r="E60" t="n">
+        <v>18250</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>144540</v>
+      </c>
+      <c r="H60" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>578160</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>52998000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>88330</v>
+      </c>
+      <c r="N60" t="n">
+        <v>699573.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>microwave</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1314000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>17344.8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>15330</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9198000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>121413.6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>52998000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>88330</v>
+      </c>
+      <c r="N61" t="n">
+        <v>699573.6</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>50</v>
+      </c>
+      <c r="E62" t="n">
+        <v>18250</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>144540</v>
+      </c>
+      <c r="H62" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I62" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>578160</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>52998000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>88330</v>
+      </c>
+      <c r="N62" t="n">
+        <v>699573.6</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>microwave</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1314000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>17344.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15330</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9198000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>121413.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>52998000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>88330</v>
+      </c>
+      <c r="N63" t="n">
+        <v>699573.6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
